--- a/data/lille.xlsx
+++ b/data/lille.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aminata\Desktop\IMAFA\UE Mathematiques pour la Modélisation\actuariat\Assurance_meteo\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\Assurance_meteo\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF787E7-BCE1-4041-B21C-7630CAE87372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34DA107-B6F0-473F-AD9B-F1EFB1BBE0A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -31,10 +31,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -845,109 +841,109 @@
   <dimension ref="A1:U367"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W10" sqref="W10"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="9.140625" style="1"/>
-    <col min="7" max="9" width="9.140625" style="2"/>
-    <col min="11" max="12" width="9.140625" style="2"/>
-    <col min="13" max="13" width="9.140625" style="3"/>
-    <col min="15" max="15" width="9.140625" style="2"/>
-    <col min="16" max="16" width="9.140625" style="1"/>
+    <col min="4" max="5" width="9.1796875" style="1"/>
+    <col min="7" max="9" width="9.1796875" style="2"/>
+    <col min="11" max="12" width="9.1796875" style="2"/>
+    <col min="13" max="13" width="9.1796875" style="3"/>
+    <col min="15" max="15" width="9.1796875" style="2"/>
+    <col min="16" max="16" width="9.1796875" style="1"/>
     <col min="17" max="21" width="7" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A1">
         <f>2001</f>
         <v>2001</v>
       </c>
       <c r="B1" s="3">
-        <f>2001</f>
-        <v>2001</v>
+        <f>2001+1</f>
+        <v>2002</v>
       </c>
       <c r="C1">
         <f t="shared" ref="C1:U1" si="0">B1+1</f>
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="D1" s="1">
         <f t="shared" si="0"/>
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="E1" s="1">
         <f t="shared" si="0"/>
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F1" s="1">
         <f t="shared" si="0"/>
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="G1" s="3">
         <f t="shared" si="0"/>
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="H1" s="3">
         <f t="shared" si="0"/>
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="I1" s="3">
         <f t="shared" si="0"/>
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="J1" s="3">
         <f t="shared" si="0"/>
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="K1" s="3">
         <f t="shared" si="0"/>
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="L1" s="3">
         <f t="shared" si="0"/>
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="M1" s="3">
         <f t="shared" si="0"/>
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="N1" s="3">
         <f t="shared" si="0"/>
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="O1" s="3">
         <f t="shared" si="0"/>
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="P1" s="3">
         <f t="shared" si="0"/>
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="Q1" s="3">
         <f t="shared" si="0"/>
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="R1" s="3">
         <f t="shared" si="0"/>
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="S1" s="3">
         <f t="shared" si="0"/>
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T1" s="3">
         <f t="shared" si="0"/>
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="U1" s="3">
         <f t="shared" si="0"/>
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1012,7 +1008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1077,7 +1073,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3.2</v>
       </c>
@@ -1142,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>10.6</v>
       </c>
@@ -1207,7 +1203,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>10</v>
       </c>
@@ -1272,7 +1268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>2.2000000000000002</v>
       </c>
@@ -1337,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>2.2999999999999998</v>
       </c>
@@ -1402,7 +1398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>0.8</v>
       </c>
@@ -1467,7 +1463,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>0</v>
       </c>
@@ -1532,7 +1528,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9.4</v>
       </c>
@@ -1597,7 +1593,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>9.4</v>
       </c>
@@ -1662,7 +1658,7 @@
         <v>11.9</v>
       </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1727,7 +1723,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1792,7 +1788,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1857,7 +1853,7 @@
         <v>15.7</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1922,7 +1918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1987,7 +1983,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>0</v>
       </c>
@@ -2052,7 +2048,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>0</v>
       </c>
@@ -2117,7 +2113,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>0.2</v>
       </c>
@@ -2182,7 +2178,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>0.3</v>
       </c>
@@ -2247,7 +2243,7 @@
         <v>4.7</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>16.600000000000001</v>
       </c>
@@ -2312,7 +2308,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>4.8</v>
       </c>
@@ -2377,7 +2373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>6.6</v>
       </c>
@@ -2442,7 +2438,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>1</v>
       </c>
@@ -2507,7 +2503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>0.4</v>
       </c>
@@ -2572,7 +2568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>6</v>
       </c>
@@ -2637,7 +2633,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>0.4</v>
       </c>
@@ -2702,7 +2698,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>0.5</v>
       </c>
@@ -2767,7 +2763,7 @@
         <v>14.9</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>1</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>1</v>
       </c>
@@ -2897,7 +2893,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2962,7 +2958,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>0</v>
       </c>
@@ -3027,7 +3023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>6</v>
       </c>
@@ -3092,7 +3088,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>6.6</v>
       </c>
@@ -3157,7 +3153,7 @@
         <v>17.8</v>
       </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>4.5999999999999996</v>
       </c>
@@ -3222,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>2</v>
       </c>
@@ -3287,7 +3283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>1.4</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>4.4000000000000004</v>
       </c>
@@ -3417,7 +3413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>0.6</v>
       </c>
@@ -3482,7 +3478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>0.5</v>
       </c>
@@ -3547,7 +3543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>0.2</v>
       </c>
@@ -3612,7 +3608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>0.3</v>
       </c>
@@ -3677,7 +3673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>7</v>
       </c>
@@ -3742,7 +3738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>7.1</v>
       </c>
@@ -3807,7 +3803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3872,7 +3868,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3937,7 +3933,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>0</v>
       </c>
@@ -4002,7 +3998,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>0</v>
       </c>
@@ -4067,7 +4063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>0</v>
       </c>
@@ -4132,7 +4128,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>0</v>
       </c>
@@ -4197,7 +4193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>0</v>
       </c>
@@ -4262,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>0.4</v>
       </c>
@@ -4327,7 +4323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>0.8</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>4.8</v>
       </c>
@@ -4457,7 +4453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>2</v>
       </c>
@@ -4522,7 +4518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4587,7 +4583,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4652,7 +4648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>0.8</v>
       </c>
@@ -4717,7 +4713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>4.2</v>
       </c>
@@ -4782,7 +4778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>0.2</v>
       </c>
@@ -4847,7 +4843,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>0.3</v>
       </c>
@@ -4912,7 +4908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>1.4</v>
       </c>
@@ -4977,7 +4973,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>0.4</v>
       </c>
@@ -5042,7 +5038,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>0.5</v>
       </c>
@@ -5107,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>5.8</v>
       </c>
@@ -5172,7 +5168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>5.8</v>
       </c>
@@ -5237,7 +5233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>10.4</v>
       </c>
@@ -5302,7 +5298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>6.8</v>
       </c>
@@ -5367,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>4.4000000000000004</v>
       </c>
@@ -5432,7 +5428,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>5</v>
       </c>
@@ -5497,7 +5493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>2.6</v>
       </c>
@@ -5562,7 +5558,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>2.8</v>
       </c>
@@ -5627,7 +5623,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>4.8</v>
       </c>
@@ -5692,7 +5688,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>0.6</v>
       </c>
@@ -5757,7 +5753,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>0.5</v>
       </c>
@@ -5822,7 +5818,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>5.2</v>
       </c>
@@ -5887,7 +5883,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>14.6</v>
       </c>
@@ -5952,7 +5948,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>14.5</v>
       </c>
@@ -6017,7 +6013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>11.2</v>
       </c>
@@ -6082,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>5.6</v>
       </c>
@@ -6147,7 +6143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>2.8</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>1.6</v>
       </c>
@@ -6277,7 +6273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>3.4</v>
       </c>
@@ -6342,7 +6338,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>3.3</v>
       </c>
@@ -6407,7 +6403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>0</v>
       </c>
@@ -6472,7 +6468,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>2.2000000000000002</v>
       </c>
@@ -6537,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>11.2</v>
       </c>
@@ -6602,7 +6598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>9.6</v>
       </c>
@@ -6667,7 +6663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>9.6999999999999993</v>
       </c>
@@ -6732,7 +6728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>0</v>
       </c>
@@ -6797,7 +6793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>0</v>
       </c>
@@ -6862,7 +6858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>0.2</v>
       </c>
@@ -6927,7 +6923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>1.8</v>
       </c>
@@ -6992,7 +6988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>10.6</v>
       </c>
@@ -7057,7 +7053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>5</v>
       </c>
@@ -7122,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>4</v>
       </c>
@@ -7187,7 +7183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>3.8</v>
       </c>
@@ -7252,7 +7248,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>5</v>
       </c>
@@ -7317,7 +7313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>0.4</v>
       </c>
@@ -7382,7 +7378,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>8.1999999999999993</v>
       </c>
@@ -7447,7 +7443,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>0.6</v>
       </c>
@@ -7512,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>0.5</v>
       </c>
@@ -7577,7 +7573,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>0</v>
       </c>
@@ -7642,7 +7638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>17.8</v>
       </c>
@@ -7707,7 +7703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>1.2</v>
       </c>
@@ -7772,7 +7768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>8.1999999999999993</v>
       </c>
@@ -7837,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>6.8</v>
       </c>
@@ -7902,7 +7898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>1</v>
       </c>
@@ -7967,7 +7963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>4</v>
       </c>
@@ -8032,7 +8028,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>5.8</v>
       </c>
@@ -8097,7 +8093,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>5</v>
       </c>
@@ -8162,7 +8158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>5.0999999999999996</v>
       </c>
@@ -8227,7 +8223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>0</v>
       </c>
@@ -8292,7 +8288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>5</v>
       </c>
@@ -8357,7 +8353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>5.6</v>
       </c>
@@ -8422,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>4.2</v>
       </c>
@@ -8487,7 +8483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>3.2</v>
       </c>
@@ -8552,7 +8548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>2.2000000000000002</v>
       </c>
@@ -8617,7 +8613,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="120" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>2.2999999999999998</v>
       </c>
@@ -8682,7 +8678,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>1.6</v>
       </c>
@@ -8747,7 +8743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>5.6</v>
       </c>
@@ -8812,7 +8808,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="123" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>0.6</v>
       </c>
@@ -8877,7 +8873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>6.6</v>
       </c>
@@ -8942,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>1.2</v>
       </c>
@@ -9007,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>1.3</v>
       </c>
@@ -9072,7 +9068,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="127" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>0</v>
       </c>
@@ -9137,7 +9133,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="128" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>0</v>
       </c>
@@ -9202,7 +9198,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="129" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>0</v>
       </c>
@@ -9267,7 +9263,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="130" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>0</v>
       </c>
@@ -9332,7 +9328,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="131" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>0</v>
       </c>
@@ -9397,7 +9393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>0</v>
       </c>
@@ -9462,7 +9458,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="133" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>0</v>
       </c>
@@ -9527,7 +9523,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="134" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>0</v>
       </c>
@@ -9592,7 +9588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>1.8</v>
       </c>
@@ -9657,7 +9653,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="136" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>1.6</v>
       </c>
@@ -9722,7 +9718,7 @@
         <v>4.2</v>
       </c>
     </row>
-    <row r="137" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>1.4</v>
       </c>
@@ -9787,7 +9783,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="138" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>1.6</v>
       </c>
@@ -9852,7 +9848,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="139" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>0.2</v>
       </c>
@@ -9917,7 +9913,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="140" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>0.3</v>
       </c>
@@ -9982,7 +9978,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="141" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>0</v>
       </c>
@@ -10047,7 +10043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>0</v>
       </c>
@@ -10112,7 +10108,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="143" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>0</v>
       </c>
@@ -10177,7 +10173,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="144" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>0</v>
       </c>
@@ -10242,7 +10238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="145" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>0</v>
       </c>
@@ -10307,7 +10303,7 @@
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="146" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>0</v>
       </c>
@@ -10372,7 +10368,7 @@
         <v>3.4</v>
       </c>
     </row>
-    <row r="147" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>0</v>
       </c>
@@ -10437,7 +10433,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="148" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>0</v>
       </c>
@@ -10502,7 +10498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>0</v>
       </c>
@@ -10567,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>0</v>
       </c>
@@ -10632,7 +10628,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="151" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>0</v>
       </c>
@@ -10697,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>0</v>
       </c>
@@ -10762,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>0.4</v>
       </c>
@@ -10827,7 +10823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>4.8</v>
       </c>
@@ -10892,7 +10888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>0.4</v>
       </c>
@@ -10957,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>0.5</v>
       </c>
@@ -11022,7 +11018,7 @@
         <v>41.9</v>
       </c>
     </row>
-    <row r="157" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>0</v>
       </c>
@@ -11087,7 +11083,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="158" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>0</v>
       </c>
@@ -11152,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>3.6</v>
       </c>
@@ -11217,7 +11213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>3.6</v>
       </c>
@@ -11282,7 +11278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>0</v>
       </c>
@@ -11347,7 +11343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>0.4</v>
       </c>
@@ -11412,7 +11408,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="163" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>0.5</v>
       </c>
@@ -11477,7 +11473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>0</v>
       </c>
@@ -11542,7 +11538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>2.2000000000000002</v>
       </c>
@@ -11607,7 +11603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>0</v>
       </c>
@@ -11672,7 +11668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>0</v>
       </c>
@@ -11737,7 +11733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>5.8</v>
       </c>
@@ -11802,7 +11798,7 @@
         <v>5.3</v>
       </c>
     </row>
-    <row r="169" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>1.4</v>
       </c>
@@ -11867,7 +11863,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="170" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>1.5</v>
       </c>
@@ -11932,7 +11928,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>0.8</v>
       </c>
@@ -11997,7 +11993,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="172" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>0</v>
       </c>
@@ -12062,7 +12058,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="173" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>0</v>
       </c>
@@ -12127,7 +12123,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="174" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>0</v>
       </c>
@@ -12192,7 +12188,7 @@
         <v>4.5999999999999996</v>
       </c>
     </row>
-    <row r="175" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>0</v>
       </c>
@@ -12257,7 +12253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>0</v>
       </c>
@@ -12322,7 +12318,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="177" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>0</v>
       </c>
@@ -12387,7 +12383,7 @@
         <v>6.8</v>
       </c>
     </row>
-    <row r="178" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>9.4</v>
       </c>
@@ -12452,7 +12448,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="179" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>0</v>
       </c>
@@ -12517,7 +12513,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="180" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>0</v>
       </c>
@@ -12582,7 +12578,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="181" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>0</v>
       </c>
@@ -12647,7 +12643,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="182" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>0</v>
       </c>
@@ -12712,7 +12708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="183" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>0</v>
       </c>
@@ -12777,7 +12773,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="184" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>0</v>
       </c>
@@ -12842,7 +12838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>0</v>
       </c>
@@ -12907,7 +12903,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="186" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>0</v>
       </c>
@@ -12972,7 +12968,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="187" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>10</v>
       </c>
@@ -13037,7 +13033,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="188" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>14</v>
       </c>
@@ -13102,7 +13098,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="189" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>1</v>
       </c>
@@ -13167,7 +13163,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="190" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>2</v>
       </c>
@@ -13232,7 +13228,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="191" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>0</v>
       </c>
@@ -13297,7 +13293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>3.8</v>
       </c>
@@ -13362,7 +13358,7 @@
         <v>10.9</v>
       </c>
     </row>
-    <row r="193" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>0.2</v>
       </c>
@@ -13427,7 +13423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>0.3</v>
       </c>
@@ -13492,7 +13488,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="195" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>0</v>
       </c>
@@ -13557,7 +13553,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="196" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>4.5999999999999996</v>
       </c>
@@ -13622,7 +13618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>2</v>
       </c>
@@ -13687,7 +13683,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="198" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>2</v>
       </c>
@@ -13752,7 +13748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>3.8</v>
       </c>
@@ -13817,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>3</v>
       </c>
@@ -13882,7 +13878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>5.4</v>
       </c>
@@ -13947,7 +13943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>1.8</v>
       </c>
@@ -14012,7 +14008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>1.2</v>
       </c>
@@ -14077,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>10.6</v>
       </c>
@@ -14142,7 +14138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>10.7</v>
       </c>
@@ -14207,7 +14203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>0</v>
       </c>
@@ -14272,7 +14268,7 @@
         <v>5.7</v>
       </c>
     </row>
-    <row r="207" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>0</v>
       </c>
@@ -14337,7 +14333,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>13.6</v>
       </c>
@@ -14402,7 +14398,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="209" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>13.7</v>
       </c>
@@ -14467,7 +14463,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="210" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>0</v>
       </c>
@@ -14532,7 +14528,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="211" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>0</v>
       </c>
@@ -14597,7 +14593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>0</v>
       </c>
@@ -14662,7 +14658,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="213" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>0</v>
       </c>
@@ -14727,7 +14723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>0</v>
       </c>
@@ -14792,7 +14788,7 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="215" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>1.6</v>
       </c>
@@ -14857,7 +14853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="216" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>3.8</v>
       </c>
@@ -14922,7 +14918,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="217" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>11.2</v>
       </c>
@@ -14987,7 +14983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>11.2</v>
       </c>
@@ -15052,7 +15048,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="219" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>1.2</v>
       </c>
@@ -15117,7 +15113,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="220" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>11</v>
       </c>
@@ -15182,7 +15178,7 @@
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="221" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>0.2</v>
       </c>
@@ -15247,7 +15243,7 @@
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="222" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>5.4</v>
       </c>
@@ -15312,7 +15308,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="223" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>0.4</v>
       </c>
@@ -15377,7 +15373,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="224" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>0.5</v>
       </c>
@@ -15442,7 +15438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>0</v>
       </c>
@@ -15507,7 +15503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>0</v>
       </c>
@@ -15572,7 +15568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>0</v>
       </c>
@@ -15637,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>1.8</v>
       </c>
@@ -15702,7 +15698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>1.2</v>
       </c>
@@ -15767,7 +15763,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="230" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>1.3</v>
       </c>
@@ -15832,7 +15828,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="231" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>11.4</v>
       </c>
@@ -15897,7 +15893,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="232" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>4</v>
       </c>
@@ -15962,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>0</v>
       </c>
@@ -16027,7 +16023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>0</v>
       </c>
@@ -16092,7 +16088,7 @@
         <v>3.9</v>
       </c>
     </row>
-    <row r="235" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>0</v>
       </c>
@@ -16157,7 +16153,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="236" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>0</v>
       </c>
@@ -16222,7 +16218,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="237" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>0</v>
       </c>
@@ -16287,7 +16283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>0</v>
       </c>
@@ -16352,7 +16348,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="239" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>0</v>
       </c>
@@ -16417,7 +16413,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="240" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>0</v>
       </c>
@@ -16482,7 +16478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>0</v>
       </c>
@@ -16547,7 +16543,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="242" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>0</v>
       </c>
@@ -16612,7 +16608,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="243" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>2.4</v>
       </c>
@@ -16677,7 +16673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>0.2</v>
       </c>
@@ -16742,7 +16738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>0.2</v>
       </c>
@@ -16807,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>4.8</v>
       </c>
@@ -16872,7 +16868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>13.2</v>
       </c>
@@ -16937,7 +16933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>10</v>
       </c>
@@ -17002,7 +16998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>15.8</v>
       </c>
@@ -17067,7 +17063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>2.6</v>
       </c>
@@ -17132,7 +17128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>0.8</v>
       </c>
@@ -17197,7 +17193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>0.4</v>
       </c>
@@ -17262,7 +17258,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="253" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>5.6</v>
       </c>
@@ -17327,7 +17323,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="254" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>5.6</v>
       </c>
@@ -17392,7 +17388,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="255" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>0.8</v>
       </c>
@@ -17457,7 +17453,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="256" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>5.6</v>
       </c>
@@ -17522,7 +17518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>4.8</v>
       </c>
@@ -17587,7 +17583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>1</v>
       </c>
@@ -17652,7 +17648,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="259" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>5.2</v>
       </c>
@@ -17717,7 +17713,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="260" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>11.6</v>
       </c>
@@ -17782,7 +17778,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="261" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>25.6</v>
       </c>
@@ -17847,7 +17843,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="262" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>1.8</v>
       </c>
@@ -17912,7 +17908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>29.2</v>
       </c>
@@ -17977,7 +17973,7 @@
         <v>17.7</v>
       </c>
     </row>
-    <row r="264" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>2.8</v>
       </c>
@@ -18042,7 +18038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>0.6</v>
       </c>
@@ -18107,7 +18103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>0.2</v>
       </c>
@@ -18172,7 +18168,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="267" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>0.2</v>
       </c>
@@ -18237,7 +18233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>4.2</v>
       </c>
@@ -18302,7 +18298,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="269" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>0.4</v>
       </c>
@@ -18367,7 +18363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>4</v>
       </c>
@@ -18432,7 +18428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>1</v>
       </c>
@@ -18494,7 +18490,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="272" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>0.2</v>
       </c>
@@ -18556,7 +18552,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="273" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>7</v>
       </c>
@@ -18618,7 +18614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>1.8</v>
       </c>
@@ -18683,7 +18679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>2.6</v>
       </c>
@@ -18748,7 +18744,7 @@
         <v>6.2</v>
       </c>
     </row>
-    <row r="276" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>3.2</v>
       </c>
@@ -18813,7 +18809,7 @@
         <v>25.2</v>
       </c>
     </row>
-    <row r="277" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>0.2</v>
       </c>
@@ -18878,7 +18874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="278" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>0.3</v>
       </c>
@@ -18943,7 +18939,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="279" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>0</v>
       </c>
@@ -19008,7 +19004,7 @@
         <v>10.7</v>
       </c>
     </row>
-    <row r="280" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>5.8</v>
       </c>
@@ -19073,7 +19069,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="281" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>2</v>
       </c>
@@ -19138,7 +19134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>0.2</v>
       </c>
@@ -19203,7 +19199,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="283" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>0.2</v>
       </c>
@@ -19268,7 +19264,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="284" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>0</v>
       </c>
@@ -19333,7 +19329,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="285" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>0.2</v>
       </c>
@@ -19398,7 +19394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>0</v>
       </c>
@@ -19463,7 +19459,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="287" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>0.4</v>
       </c>
@@ -19528,7 +19524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>1</v>
       </c>
@@ -19593,7 +19589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>2</v>
       </c>
@@ -19658,7 +19654,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="290" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>0.2</v>
       </c>
@@ -19723,7 +19719,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="291" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>0</v>
       </c>
@@ -19788,7 +19784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>0.4</v>
       </c>
@@ -19853,7 +19849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="293" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>0.5</v>
       </c>
@@ -19918,7 +19914,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="294" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>7</v>
       </c>
@@ -19983,7 +19979,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="295" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>2.8</v>
       </c>
@@ -20048,7 +20044,7 @@
         <v>4.3</v>
       </c>
     </row>
-    <row r="296" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>3.4</v>
       </c>
@@ -20113,7 +20109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>1.4</v>
       </c>
@@ -20178,7 +20174,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>4</v>
       </c>
@@ -20243,7 +20239,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="299" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>0.2</v>
       </c>
@@ -20308,7 +20304,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="300" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>0.4</v>
       </c>
@@ -20373,7 +20369,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="301" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>0.5</v>
       </c>
@@ -20438,7 +20434,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="302" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>0</v>
       </c>
@@ -20503,7 +20499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>0</v>
       </c>
@@ -20568,7 +20564,7 @@
         <v>1.6</v>
       </c>
     </row>
-    <row r="304" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>0</v>
       </c>
@@ -20633,7 +20629,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="305" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>0</v>
       </c>
@@ -20698,7 +20694,7 @@
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="306" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>0</v>
       </c>
@@ -20763,7 +20759,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="307" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>0</v>
       </c>
@@ -20828,7 +20824,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="308" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>0</v>
       </c>
@@ -20893,7 +20889,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="309" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>0</v>
       </c>
@@ -20958,7 +20954,7 @@
         <v>5.2</v>
       </c>
     </row>
-    <row r="310" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>0</v>
       </c>
@@ -21023,7 +21019,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="311" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>0.6</v>
       </c>
@@ -21088,7 +21084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>7.2</v>
       </c>
@@ -21153,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>11.2</v>
       </c>
@@ -21218,7 +21214,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="314" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>0.8</v>
       </c>
@@ -21283,7 +21279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>0.8</v>
       </c>
@@ -21348,7 +21344,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="316" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>0</v>
       </c>
@@ -21413,7 +21409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>2.6</v>
       </c>
@@ -21478,7 +21474,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="318" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>5.2</v>
       </c>
@@ -21543,7 +21539,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="319" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>1</v>
       </c>
@@ -21608,7 +21604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>1</v>
       </c>
@@ -21673,7 +21669,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="321" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>0</v>
       </c>
@@ -21738,7 +21734,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="322" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>0</v>
       </c>
@@ -21803,7 +21799,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="323" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>0</v>
       </c>
@@ -21868,7 +21864,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="324" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>0</v>
       </c>
@@ -21933,7 +21929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>0</v>
       </c>
@@ -21998,7 +21994,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="326" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>0.2</v>
       </c>
@@ -22063,7 +22059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="327" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>12.8</v>
       </c>
@@ -22128,7 +22124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>4.5999999999999996</v>
       </c>
@@ -22193,7 +22189,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="329" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>2</v>
       </c>
@@ -22258,7 +22254,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="330" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>5.6</v>
       </c>
@@ -22323,7 +22319,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="331" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>0.8</v>
       </c>
@@ -22388,7 +22384,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="332" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>1</v>
       </c>
@@ -22453,7 +22449,7 @@
         <v>13.9</v>
       </c>
     </row>
-    <row r="333" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>0</v>
       </c>
@@ -22518,7 +22514,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="334" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>10</v>
       </c>
@@ -22583,7 +22579,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="335" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>3.4</v>
       </c>
@@ -22648,7 +22644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>0.2</v>
       </c>
@@ -22713,7 +22709,7 @@
         <v>3.6</v>
       </c>
     </row>
-    <row r="337" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>4.2</v>
       </c>
@@ -22778,7 +22774,7 @@
         <v>3.8</v>
       </c>
     </row>
-    <row r="338" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>2.4</v>
       </c>
@@ -22843,7 +22839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="339" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>0.6</v>
       </c>
@@ -22908,7 +22904,7 @@
         <v>6.9</v>
       </c>
     </row>
-    <row r="340" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>3.8</v>
       </c>
@@ -22973,7 +22969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>3.8</v>
       </c>
@@ -23038,7 +23034,7 @@
         <v>6.1</v>
       </c>
     </row>
-    <row r="342" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>0</v>
       </c>
@@ -23103,7 +23099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>0</v>
       </c>
@@ -23168,7 +23164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>0</v>
       </c>
@@ -23233,7 +23229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>0</v>
       </c>
@@ -23298,7 +23294,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="346" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>0</v>
       </c>
@@ -23363,7 +23359,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="347" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>0</v>
       </c>
@@ -23428,7 +23424,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="348" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>0</v>
       </c>
@@ -23493,7 +23489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>0</v>
       </c>
@@ -23558,7 +23554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>0</v>
       </c>
@@ -23623,7 +23619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>0</v>
       </c>
@@ -23688,7 +23684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>0.2</v>
       </c>
@@ -23753,7 +23749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>0.3</v>
       </c>
@@ -23818,7 +23814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>1</v>
       </c>
@@ -23883,7 +23879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>0</v>
       </c>
@@ -23948,7 +23944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>4.5999999999999996</v>
       </c>
@@ -24013,7 +24009,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>3.4</v>
       </c>
@@ -24078,7 +24074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>3.3</v>
       </c>
@@ -24143,7 +24139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>5.2</v>
       </c>
@@ -24208,7 +24204,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="360" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>4.2</v>
       </c>
@@ -24273,7 +24269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>0</v>
       </c>
@@ -24338,7 +24334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>0.4</v>
       </c>
@@ -24403,7 +24399,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="363" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>3</v>
       </c>
@@ -24468,7 +24464,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="364" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>3.8</v>
       </c>
@@ -24533,7 +24529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>3.8</v>
       </c>
@@ -24598,7 +24594,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="366" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>0</v>
       </c>
@@ -24663,21 +24659,69 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:21" x14ac:dyDescent="0.35">
+      <c r="A367">
+        <v>0</v>
+      </c>
+      <c r="B367" s="3">
+        <v>0</v>
+      </c>
+      <c r="C367">
+        <v>0</v>
+      </c>
       <c r="D367" s="1">
         <v>0.2</v>
       </c>
+      <c r="E367" s="1">
+        <v>0</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" s="2">
+        <v>0</v>
+      </c>
       <c r="H367" s="2">
+        <v>0</v>
+      </c>
+      <c r="I367" s="2">
+        <v>0</v>
+      </c>
+      <c r="J367">
+        <v>0</v>
+      </c>
+      <c r="K367" s="2">
         <v>0</v>
       </c>
       <c r="L367" s="2">
         <v>5.2</v>
       </c>
+      <c r="M367" s="3">
+        <v>0</v>
+      </c>
+      <c r="N367">
+        <v>0</v>
+      </c>
+      <c r="O367" s="2">
+        <v>0</v>
+      </c>
       <c r="P367" s="1">
         <v>0</v>
       </c>
+      <c r="Q367">
+        <v>0</v>
+      </c>
+      <c r="R367">
+        <v>0</v>
+      </c>
+      <c r="S367">
+        <v>0</v>
+      </c>
       <c r="T367">
         <v>0.4</v>
+      </c>
+      <c r="U367">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
